--- a/PhoenixCI/Excel_Template/30390.xlsx
+++ b/PhoenixCI/Excel_Template/30390.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8701835A-0AA4-4681-95DA-DCE8142378BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D944CD41-683A-4BD3-A24A-08C4125896F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="30391" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -434,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -447,6 +446,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,10 +494,13 @@
     <xf numFmtId="188" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="189" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="188" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,10 +509,13 @@
     <xf numFmtId="188" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,7 +569,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E19B56-E4FB-4D5B-B2E5-DBE0503AA744}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFA988B-07A8-45A0-A178-5378274B6357}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -615,7 +623,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3957BA9C-34AA-428C-B57E-9E111AAE1A31}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881370F7-73EE-4EE0-8573-17A32BE2DDA8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1040,27 +1048,27 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1072,10 +1080,10 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1086,610 +1094,610 @@
         <v>0</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <f xml:space="preserve"> 100 - F3</f>
         <v>100</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="18">
+      <c r="A4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="16">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="17">
         <f>F4 - F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="24">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="16">
+      <c r="A5" s="10"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="17">
         <f t="shared" ref="G5:G32" si="1">F5 - F4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="24">
         <f t="shared" ref="H5:H34" si="2">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="A6" s="10"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="A7" s="10"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="A8" s="10"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="A9" s="10"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="A10" s="10"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="A11" s="10"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="A12" s="10"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="A13" s="10"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="A14" s="10"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="A15" s="10"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="A16" s="10"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="A17" s="10"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="A18" s="10"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
+      <c r="A19" s="10"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="A20" s="10"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="22">
+      <c r="A21" s="10"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="A22" s="10"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="22">
+      <c r="A23" s="10"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
+      <c r="A24" s="10"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
+      <c r="A25" s="10"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="A26" s="10"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="A27" s="10"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="16">
+      <c r="A28" s="10"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="17">
         <f>F28 - F27</f>
         <v>0</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="A29" s="10"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
+      <c r="A30" s="10"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="22">
+      <c r="A31" s="10"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="A32" s="10"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="16">
+      <c r="A33" s="10"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="17">
         <f>F33 - F32</f>
         <v>0</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="17">
+      <c r="A34" s="11"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="18">
         <f>F34 - F33</f>
         <v>0</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
+      <c r="E36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/PhoenixCI/Excel_Template/30390.xlsx
+++ b/PhoenixCI/Excel_Template/30390.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D944CD41-683A-4BD3-A24A-08C4125896F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8701835A-0AA4-4681-95DA-DCE8142378BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30391" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -433,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -446,9 +447,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,13 +492,10 @@
     <xf numFmtId="188" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="189" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="188" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,13 +504,10 @@
     <xf numFmtId="188" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +561,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFA988B-07A8-45A0-A178-5378274B6357}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E19B56-E4FB-4D5B-B2E5-DBE0503AA744}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -623,7 +615,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881370F7-73EE-4EE0-8573-17A32BE2DDA8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3957BA9C-34AA-428C-B57E-9E111AAE1A31}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1048,27 +1040,27 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1080,10 +1072,10 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1094,610 +1086,610 @@
         <v>0</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <f xml:space="preserve"> 100 - F3</f>
         <v>100</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="19">
+      <c r="A4" s="9"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="17">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="16">
         <f>F4 - F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="17">
+      <c r="A5" s="9"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="16">
         <f t="shared" ref="G5:G32" si="1">F5 - F4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <f t="shared" ref="H5:H34" si="2">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
+      <c r="A6" s="9"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="A7" s="9"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
+      <c r="A8" s="9"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="A9" s="9"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="24">
+      <c r="A10" s="9"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="A11" s="9"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="A12" s="9"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="24">
+      <c r="A13" s="9"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
+      <c r="A14" s="9"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="A15" s="9"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
+      <c r="A16" s="9"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
+      <c r="A17" s="9"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="24">
+      <c r="A18" s="9"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="24">
+      <c r="A19" s="9"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="24">
+      <c r="A20" s="9"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="24">
+      <c r="A21" s="9"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="24">
+      <c r="A22" s="9"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="24">
+      <c r="A23" s="9"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="24">
+      <c r="A24" s="9"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="24">
+      <c r="A25" s="9"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="24">
+      <c r="A26" s="9"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="24">
+      <c r="A27" s="9"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="17">
+      <c r="A28" s="9"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="16">
         <f>F28 - F27</f>
         <v>0</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="24">
+      <c r="A29" s="9"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="24">
+      <c r="A30" s="9"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="24">
+      <c r="A31" s="9"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="24">
+      <c r="A32" s="9"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="17">
+      <c r="A33" s="9"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="16">
         <f>F33 - F32</f>
         <v>0</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="18">
+      <c r="A34" s="10"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="17">
         <f>F34 - F33</f>
         <v>0</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="9"/>
+      <c r="E36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
